--- a/literature/04.reseach-interface-comparative-experiments/20151002-Bunin-zonbiグラフなし.xlsx
+++ b/literature/04.reseach-interface-comparative-experiments/20151002-Bunin-zonbiグラフなし.xlsx
@@ -493,7 +493,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.154070619221378"/>
+          <c:y val="0.0927152317880794"/>
+          <c:w val="0.581278892557785"/>
+          <c:h val="0.783582677165354"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -665,11 +675,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2121971432"/>
-        <c:axId val="2121584312"/>
+        <c:axId val="2126620952"/>
+        <c:axId val="-2147303224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2121971432"/>
+        <c:axId val="2126620952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -682,30 +692,47 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" b="0"/>
                   <a:t>TIME [min]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.367084328168656"/>
+              <c:y val="0.907161951978225"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121584312"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="-2147303224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2121584312"/>
+        <c:axId val="-2147303224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -720,32 +747,68 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1400" b="0"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" altLang="en-US"/>
+                  <a:rPr lang="en-US" altLang="en-US" sz="1400" b="0"/>
                   <a:t>Value of UX [%]</a:t>
                 </a:r>
-                <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+                <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400" b="0"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.0"/>
+              <c:y val="0.17220278020803"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2121971432"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2126620952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.737718181568767"/>
+          <c:y val="0.345789748135788"/>
+          <c:w val="0.262281818431233"/>
+          <c:h val="0.281930437503259"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1100"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1042,11 +1105,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099468728"/>
-        <c:axId val="2122179800"/>
+        <c:axId val="-2123791576"/>
+        <c:axId val="-2123439272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099468728"/>
+        <c:axId val="-2123791576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1069,18 +1132,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122179800"/>
+        <c:crossAx val="-2123439272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2122179800"/>
+        <c:axId val="-2123439272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1105,19 +1169,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099468728"/>
+        <c:crossAx val="-2123791576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1386,11 +1452,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2126583128"/>
-        <c:axId val="-2126660920"/>
+        <c:axId val="-2100570280"/>
+        <c:axId val="2126356760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2126583128"/>
+        <c:axId val="-2100570280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1419,12 +1485,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126660920"/>
+        <c:crossAx val="2126356760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126660920"/>
+        <c:axId val="2126356760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1455,7 +1521,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126583128"/>
+        <c:crossAx val="-2100570280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1730,11 +1796,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121441688"/>
-        <c:axId val="-2126881384"/>
+        <c:axId val="2108492360"/>
+        <c:axId val="-2100618552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121441688"/>
+        <c:axId val="2108492360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,19 +1823,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2126881384"/>
+        <c:crossAx val="-2100618552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2126881384"/>
+        <c:axId val="-2100618552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -1794,21 +1859,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2121441688"/>
+        <c:crossAx val="2108492360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2101,11 +2164,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2129166040"/>
-        <c:axId val="-2127660216"/>
+        <c:axId val="-2127282616"/>
+        <c:axId val="-2102561864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2129166040"/>
+        <c:axId val="-2127282616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2134,12 +2197,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2127660216"/>
+        <c:crossAx val="-2102561864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2127660216"/>
+        <c:axId val="-2102561864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -2170,7 +2233,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2129166040"/>
+        <c:crossAx val="-2127282616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2195,16 +2258,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>546100</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2681,8 +2744,8 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="V21" sqref="V21"/>
+    <sheetView tabSelected="1" topLeftCell="I5" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
